--- a/docs/CDM/common_datamodel.xlsx
+++ b/docs/CDM/common_datamodel.xlsx
@@ -604,7 +604,7 @@
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">Estudio de las variaciones a nivel de área sanitaria de la atención cardiológica en Atención Primaria. Este estudio tiene como objetivos específicos:
-a)Definir operativamente un listado de indicadores que describan los cuidados (proceso), el tratamiento farmacéutico y los resultados intermedios de la atención a personas con enfermedades cardíacas crónicas, en concreto, cardiopatía isquémica, insuficiencia cardíaca congestiva y fibrilación auricular; b) Especificar el modelo de datos requerido para medir de forma sistemática y consistente estos indicadores a nivel de zona básica de salud, de conformidad con los datos de vida real disponibles en los sistemas de información de salud de las CCAA; c) Describir y cartografiar la variación geográfica de la atención al paciente cardíaco por zona básica de salud, analizando también las diferencias por sexo y por nivel socioeconómico; d) Presentar los resultados de monitorización de forma interactiva. 
+a) Definir operativamente un listado de indicadores que describan los cuidados (proceso), el tratamiento farmacéutico y los resultados intermedios de la atención a personas con enfermedades cardíacas crónicas, en concreto, cardiopatía isquémica, insuficiencia cardíaca congestiva y fibrilación auricular; b) Especificar el modelo de datos requerido para medir de forma sistemática y consistente estos indicadores a nivel de zona básica de salud, de conformidad con los datos de vida real disponibles en los sistemas de información de salud de las CCAA; c) Describir y cartografiar la variación geográfica de la atención al paciente cardíaco por zona básica de salud, analizando también las diferencias por sexo y por nivel socioeconómico; d) Presentar los resultados de monitorización de forma interactiva. 
 </t>
         </is>
       </c>
@@ -12118,7 +12118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12166,7 +12166,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CIAP-2</t>
+          <t>ciap-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -12199,22 +12199,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CIAP-2</t>
+          <t>icd-9-mc-es</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T90</t>
+          <t>410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T90</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Diabetes (DM)</t>
+          <t>Infarto agudo de miocardio</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12224,6 +12224,1128 @@
         <v/>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Otras formas agudas y subagudas de cardiopatia isquemica</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Infarto de miocardio antiguo</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>I210</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Infarto agudo de miocardio con elevacion de ST (IAMCEST) de cara anterior</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>I211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>I211</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Infarto agudo de miocardio con elevacion de ST (IAMCEST) de cara inferior</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>I212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>I212</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Infarto agudo de miocardio con elevacion de ST (IAMCEST) de otra localizacion</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>I213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>I213</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Infarto agudo de miocardio con elevacion de ST (IAMCEST) de localizacion no especificada</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I214</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>I214</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Infarto agudo de miocardio sin elevacion de ST (IAMSEST)</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>I219</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>I219</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Infarto agudo del miocardio sin otra especificacion</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>I220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>I220</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Infarto agudo de miocardio subsiguiente con elevacion de ST (IAMCEST) de pared anterior</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>I221</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>I221</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Infarto agudo de miocardio subsiguiente con elevacion de ST (IAMCEST) de cara inferior</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>I228</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>I228</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Infarto agudo de miocardio subsiguiente con elevacion de ST (IAMCEST) de otras localizaciones</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>I229</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>I229</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Infarto agudo de miocardio subsiguiente con elevacion de ST (IAMCEST) de localizacion no especi_cada</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ciap-2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>T90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>T90</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Diabetes (DM)</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>250.02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>25002</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v/>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>250.10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>25010</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v/>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>250.12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25012</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v/>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>250.20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>25020</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v/>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>250.22</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>25022</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v/>
+      </c>
+      <c r="F22" t="n">
+        <v/>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>250.30</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>25030</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v/>
+      </c>
+      <c r="F23" t="n">
+        <v/>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>250.32</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>25032</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v/>
+      </c>
+      <c r="F24" t="n">
+        <v/>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>250.40</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>25040</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v/>
+      </c>
+      <c r="F25" t="n">
+        <v/>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>250.42</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25042</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v/>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>250.50</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>25050</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v/>
+      </c>
+      <c r="F27" t="n">
+        <v/>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>250.52</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>25052</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v/>
+      </c>
+      <c r="F28" t="n">
+        <v/>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>250.60</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>25060</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v/>
+      </c>
+      <c r="F29" t="n">
+        <v/>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>250.62</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>25062</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v/>
+      </c>
+      <c r="F30" t="n">
+        <v/>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>250.70</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>25070</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v/>
+      </c>
+      <c r="F31" t="n">
+        <v/>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>250.72</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>25072</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v/>
+      </c>
+      <c r="F32" t="n">
+        <v/>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>250.80</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25080</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v/>
+      </c>
+      <c r="F33" t="n">
+        <v/>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>250.82</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>25082</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v/>
+      </c>
+      <c r="F34" t="n">
+        <v/>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>250.90</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>25090</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v/>
+      </c>
+      <c r="F35" t="n">
+        <v/>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>icd-9-mc-es</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>250.92</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>25092</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v/>
+      </c>
+      <c r="F36" t="n">
+        <v/>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>icd-10-mc-es</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2 (DM2)</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v/>
+      </c>
+      <c r="F37" t="n">
+        <v/>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -12286,7 +13408,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adultos con tarjeta sanitaria activa a 31 de diciembre de 2021 con antecedentes diagnósticos de enfermedad cardiológica crónica, en concreto, enfermedad isquémica coronaria, insuficiencia cardíaca congestiva, o fibrilación auricular en las CCAA participantes en el periodo de estudio (2022) 
+          <t xml:space="preserve">Adultos con tarjeta sanitaria activa a 31 de diciembre del año de estudio con antecedentes diagnósticos de enfermedad cardiológica crónica, en concreto, enfermedad isquémica coronaria, insuficiencia cardíaca congestiva, o fibrilación auricular en las CCAA participantes durante el periodo de estudio (2023) 
 </t>
         </is>
       </c>
@@ -12299,7 +13421,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cualquier persona igual o mayor de 18 años con tarjeta sanitaria activa el 31 de diciembres del año de estudio que tenga episodio abierto en Atención Primaria de cualquiera de las enfermedades cardiológicas relevantes (i.e. enfermedad isquémica coronaria, insuficiencia cardiaca congestiva o fibrilación auricular), o que haya tenido una visita a urgencias hospitalarias o un ingreso hospitalario con diagnóstico principal de cualquiera de estas condiciones
+          <t xml:space="preserve">Cualquier persona igual o mayor de 18 años con tarjeta sanitaria activa el 31 de diciembres del año de estudio que tenga episodio abierto en Atención Primaria de cualquiera de las enfermedades cardiológicas relevantes (i.e. enfermedad isquémica coronaria, insuficiencia cardiaca congestiva o fibrilación auricular), o que haya tenido una visita a urgencias hospitalarias o un ingreso hospitalario con un diagnóstico (d1-d20) de cualquiera de estas condiciones en los 5 años previos (2018-2022)
 </t>
         </is>
       </c>
@@ -12325,7 +13447,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="6">
@@ -12335,7 +13457,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44926</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="8">
@@ -12365,7 +13487,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>code_clean</t>
+          <t>enfermedad_cd</t>
         </is>
       </c>
     </row>
@@ -15013,7 +16135,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Variable calculada a partir de la identificación de diagnósticos incluidos en el catálogo 'enfermedad_cd'</t>
+          <t>Variable calculada a partir de la identificación de diagnósticos incluidos en el catálogo 'paciente_enfermedad_cd'</t>
         </is>
       </c>
     </row>
@@ -16497,7 +17619,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Cada paciente tendrá tantos registros de tratamiento como prescripciones cuya fecha de inicio o fecha de fin se encuentre dentro del periodo de estudio</t>
+          <t>Cada paciente tendrá tantos registros de tratamiento como prescripciones activas tenga en el año de estudio</t>
         </is>
       </c>
     </row>
@@ -16604,6 +17726,11 @@
       </c>
       <c r="I4" t="b">
         <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>YYYY-MM-DD</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>

--- a/docs/CDM/common_datamodel.xlsx
+++ b/docs/CDM/common_datamodel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saros\Documents\ATLAS\atlas_cardio\cdmb_project\20240710103454_cdmb\docs\CDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saros\Documents\ATLAS\atlas_cardio\cdmb_project\20240927112601_cdmb\docs\CDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1272B29E-4523-4DF3-A6DF-A959C8733372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C90C1-DF46-4AD9-9334-46F72D02B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-4560" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="1007">
   <si>
     <t>Project</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Version (SEM)</t>
   </si>
   <si>
-    <t>0.0.5</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Authors</t>
@@ -154,14 +154,14 @@
     <t>Cohort description</t>
   </si>
   <si>
-    <t xml:space="preserve">Adultos con tarjeta sanitaria activa a 31 de diciembre del año de estudio con diagnóstico de enfermedad cardiológica crónica antes del 1 de enero del año de estudio, en concreto, enfermedad isquémica coronaria, insuficiencia cardíaca congestiva, o fibrilación auricular en las CCAA participantes durante el periodo de estudio (2023)
+    <t xml:space="preserve">Adultos con tarjeta sanitaria activa a 31 de diciembre del año de estudio con diagnóstico de enfermedad cardiológica crónica hasta el 31 de diciembre del año de estudio, en concreto, enfermedad isquémica coronaria, insuficiencia cardíaca congestiva, o fibrilación auricular en las CCAA participantes durante el periodo de estudio (2023)
 </t>
   </si>
   <si>
     <t>Inclusion criteria</t>
   </si>
   <si>
-    <t xml:space="preserve">Cualquier persona igual o mayor de 18 años con tarjeta sanitaria activa el 31 de diciembres del año de estudio (2023) con episodio abierto en atención primaria de enfermedad isquémica coronaria, insuficiencia cardiaca congestiva o fibrilación auricular antes del 1 de enero del año 2023 (año de estudio), o que haya tenido una visita a urgencias hospitalarias o un ingreso hospitalario con un diagnóstico (d1-d20) de cualquiera de estas condiciones en los 5 años previos (2018-2022)
+    <t xml:space="preserve">Cualquier persona igual o mayor de 18 años con tarjeta sanitaria activa el 31 de diciembres del año de estudio (2023) con episodio activo en atención primaria de enfermedad isquémica coronaria, insuficiencia cardiaca congestiva o fibrilación auricular hasta el 31 de diciembre del año de estudio (2023), o que haya tenido una visita a urgencias hospitalarias o un ingreso hospitalario con un diagnóstico (d1-d20) de cualquiera de estas condiciones en los 5 años previos (2018-2023)
 </t>
   </si>
   <si>
@@ -190,33 +190,33 @@
     <t>Column name</t>
   </si>
   <si>
+    <t>code_clean</t>
+  </si>
+  <si>
+    <t>Cohort definition catalog (exclusion)</t>
+  </si>
+  <si>
+    <t>The crosswalks data can be found in the following document sheets (If there are)</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>observations</t>
+  </si>
+  <si>
     <t>enfermedad_cd</t>
   </si>
   <si>
-    <t>Cohort definition catalog (exclusion)</t>
-  </si>
-  <si>
-    <t>The crosswalks data can be found in the following document sheets (If there are)</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>code_clean</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>observations</t>
-  </si>
-  <si>
     <t>enfermedad_st</t>
   </si>
   <si>
@@ -814,6 +814,90 @@
     <t>Insuficiencia cardiaca, no especificada</t>
   </si>
   <si>
+    <t>I48.0</t>
+  </si>
+  <si>
+    <t>I480</t>
+  </si>
+  <si>
+    <t>Fibrilación paroxística auricular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibrilacion auricular (FA)	</t>
+  </si>
+  <si>
+    <t>I48.11</t>
+  </si>
+  <si>
+    <t>I4811</t>
+  </si>
+  <si>
+    <t>Fibrilación auricular persistente de larga duración 2022</t>
+  </si>
+  <si>
+    <t>I48.19</t>
+  </si>
+  <si>
+    <t>I4819</t>
+  </si>
+  <si>
+    <t>Otro tipo de fibrilación auricular persistente 2022</t>
+  </si>
+  <si>
+    <t>I48.20</t>
+  </si>
+  <si>
+    <t>I4820</t>
+  </si>
+  <si>
+    <t>Fibrilación auricular crónica, no especificada 2022</t>
+  </si>
+  <si>
+    <t>I48.21</t>
+  </si>
+  <si>
+    <t>I4821</t>
+  </si>
+  <si>
+    <t>Fibrilación auricular permanente 2022</t>
+  </si>
+  <si>
+    <t>I48.3</t>
+  </si>
+  <si>
+    <t>I483</t>
+  </si>
+  <si>
+    <t>Flutter auricular típico I</t>
+  </si>
+  <si>
+    <t>I48.4</t>
+  </si>
+  <si>
+    <t>I484</t>
+  </si>
+  <si>
+    <t>Flutter auricular atípico II</t>
+  </si>
+  <si>
+    <t>I48.91</t>
+  </si>
+  <si>
+    <t>I4891</t>
+  </si>
+  <si>
+    <t>Fibrilación auricular no especificada</t>
+  </si>
+  <si>
+    <t>I48.92</t>
+  </si>
+  <si>
+    <t>I4892</t>
+  </si>
+  <si>
+    <t>Flutter auricular no especificado</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
@@ -904,7 +988,7 @@
     <t>Se requiere consistencia entre los códigos de ZBS de los datos de paciente y las poblaciones</t>
   </si>
   <si>
-    <t>La ZBS de residencia a 31/12/2022</t>
+    <t>La ZBS de residencia a 31/12/2023</t>
   </si>
   <si>
     <t>ccaa_cd</t>
@@ -952,7 +1036,7 @@
     <t>Calcular a partir de la fecha de inclusión del individuo en la cohorte y su fecha de nacimiento</t>
   </si>
   <si>
-    <t>Edad a 31/12/2022</t>
+    <t>Edad a 31/12/2023</t>
   </si>
   <si>
     <t>nivel_copago_cd</t>
@@ -967,7 +1051,7 @@
     <t>{0 = '&lt;18.000€'; 1 = '&gt;=18.000€' ; 2 = 'Desconocido'}</t>
   </si>
   <si>
-    <t>Calculada a partir de la TSI a 31/12/2022</t>
+    <t>Calculada a partir de la TSI a 31/12/2023</t>
   </si>
   <si>
     <t>fecha_enfermedad_dt</t>
@@ -997,10 +1081,10 @@
     <t>YYYY</t>
   </si>
   <si>
-    <t>'2022'</t>
-  </si>
-  <si>
-    <t>El año será siempre 2022 dentro del alcance de este estudio</t>
+    <t>'2023'</t>
+  </si>
+  <si>
+    <t>El año será siempre 2023 dentro del alcance de este estudio</t>
   </si>
   <si>
     <t>Comunidad autónoma a la que pertenece la zona básica de salud</t>
@@ -1033,7 +1117,7 @@
     <t>{0 ='&lt;18.000€'; 1 = '&gt;=18.000€'; 2 = 'Desconocido'}</t>
   </si>
   <si>
-    <t>Calculada a partir de la TSI a 31/12/2022 de las personas con tarjeta sanitaria adscritas a cada ZBS (población)</t>
+    <t>Calculada a partir de la TSI a 31/12/2023 de las personas con tarjeta sanitaria adscritas a cada ZBS (población)</t>
   </si>
   <si>
     <t>poblacion_nm</t>
@@ -1066,102 +1150,102 @@
     <t>Historia Clínica Electrónica de Atención Primaria (i.e., OMI-AP)</t>
   </si>
   <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>test_cd</t>
+  </si>
+  <si>
+    <t>Denominación del test que se le ha hecho al paciente</t>
+  </si>
+  <si>
+    <t>{'pad' = 'Presión Arterial Diastólica (mmHg)'; 'pas' = 'Presión Arterial Sistólica (mmHg)'; 'pn' = 'Pépitido natriurético (BNP y NT-proBNP)'; 'ldl' = 'Colesterol LDL (mg/dL)'; 'tsh' = 'hormona estimulante de la tiroides';'fg' = 'filtrado glomerular'}</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>test_resultado_nm</t>
+  </si>
+  <si>
+    <t>Resultado (valor) del test realizado</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Unidades dependientes del test</t>
+  </si>
+  <si>
+    <t>Verificar que las unidades de los resultados son consistente con las unidades especificadas para cada test (medición)</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Cada paciente tendrá tantos registros como exámenes/intervenciones se le hayan realizado durante el periodo de estudio</t>
+  </si>
+  <si>
+    <t>examen_dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha en la que se realizó el examen </t>
+  </si>
+  <si>
+    <t>Historia Clínica Electrónica Atención Primaria (i.e., OMI-AP)</t>
+  </si>
+  <si>
+    <t>examen_cd</t>
+  </si>
+  <si>
+    <t>Denominación del examen (prueba) realizado al paciente</t>
+  </si>
+  <si>
+    <t>{'ecocardio' = 'ecocardiograma'; 'fevi' = 'Determinación fracción eyección ventrículo izq.'; 'chads' = 'Evaluación escala CHADS2Vasc'; 'vacuna_gripe' = 'Vacunación antigripal'; 'HASBLED'='Evaluación escala HASBLED'}</t>
+  </si>
+  <si>
+    <t>Los resultados deben ser consistentes con la prueba realizada</t>
+  </si>
+  <si>
+    <t>ecocardio</t>
+  </si>
+  <si>
+    <t>examen_resultado_cd</t>
+  </si>
+  <si>
+    <t>Resultado (valor) del examen/intervención realizada al paciente</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>En el caso de 'ecocardiograma' y 'vacuna_gripe' el resultado esperado es 'realizada', mientras que para 'fevi' y 'chads' se espera el valor del resultado como texto</t>
+  </si>
+  <si>
+    <t>realizada</t>
+  </si>
+  <si>
+    <t>Base de Datos de Usuario (BDU)</t>
+  </si>
+  <si>
+    <t>Cada paciente tendrá tantos registros de tratamiento como prescripciones activas tenga en el año de estudio</t>
+  </si>
+  <si>
+    <t>fecha_inicio_prescripcion_dt</t>
+  </si>
+  <si>
+    <t>Fecha de inicio de prescripción</t>
+  </si>
+  <si>
+    <t>ISO-8601</t>
+  </si>
+  <si>
+    <t>Receta electrónica (i.e., e-Receta) o Historia Clínica Electrónica de Atención Primaria (i.e., OMI-AP)</t>
+  </si>
+  <si>
     <t>2022-01-02</t>
   </si>
   <si>
-    <t>test_cd</t>
-  </si>
-  <si>
-    <t>Denominación del test que se le ha hecho al paciente</t>
-  </si>
-  <si>
-    <t>{'pad' = 'Presión Arterial Diastólica (mmHg)'; 'pas' = 'Presión Arterial Sistólica (mmHg)'; 'pn' = 'Pépitido natriurético (BNP y NT-proBNP)'; 'ldl' = 'Colesterol LDL (mg/dL)'; 'tsh' = 'hormona estimulante de la tiroides';'fg' = 'filtrado glomerular'}</t>
-  </si>
-  <si>
-    <t>pad</t>
-  </si>
-  <si>
-    <t>test_resultado_nm</t>
-  </si>
-  <si>
-    <t>Resultado (valor) del test realizado</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>Unidades dependientes del test</t>
-  </si>
-  <si>
-    <t>Verificar que las unidades de los resultados son consistente con las unidades especificadas para cada test (medición)</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Cada paciente tendrá tantos registros como exámenes/intervenciones se le hayan realizado durante el periodo de estudio</t>
-  </si>
-  <si>
-    <t>examen_dt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha en la que se realizó el examen </t>
-  </si>
-  <si>
-    <t>Historia Clínica Electrónica Atención Primaria (i.e., OMI-AP)</t>
-  </si>
-  <si>
-    <t>examen_cd</t>
-  </si>
-  <si>
-    <t>Denominación del examen (prueba) realizado al paciente</t>
-  </si>
-  <si>
-    <t>{'ecocardio' = 'ecocardiograma'; 'fevi' = 'Determinación fracción eyección ventrículo izq.'; 'chads' = 'Evaluación escala CHADS2Vasc'; 'vacuna_gripe' = 'Vacunación antigripal'; 'HASBLED'='Evaluación escala HASBLED'}</t>
-  </si>
-  <si>
-    <t>Los resultados deben ser consistentes con la prueba realizada</t>
-  </si>
-  <si>
-    <t>ecocardio</t>
-  </si>
-  <si>
-    <t>examen_resultado_cd</t>
-  </si>
-  <si>
-    <t>Resultado (valor) del examen/intervención realizada al paciente</t>
-  </si>
-  <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <t>En el caso de 'ecocardiograma' y 'vacuna_gripe' el resultado esperado es 'realizada', mientras que para 'fevi' y 'chads' se espera el valor del resultado como texto</t>
-  </si>
-  <si>
-    <t>realizada</t>
-  </si>
-  <si>
-    <t>patiente_id</t>
-  </si>
-  <si>
-    <t>Base de Datos de Usuario (BDU)</t>
-  </si>
-  <si>
-    <t>Cada paciente tendrá tantos registros de tratamiento como prescripciones activas tenga en el año de estudio</t>
-  </si>
-  <si>
-    <t>fecha_inicio_prescripcion_dt</t>
-  </si>
-  <si>
-    <t>Fecha de inicio de prescripción</t>
-  </si>
-  <si>
-    <t>ISO-8601</t>
-  </si>
-  <si>
-    <t>Receta electrónica (i.e., e-Receta) o Historia Clínica Electrónica de Atención Primaria (i.e., OMI-AP)</t>
-  </si>
-  <si>
     <t>fecha_fin_prescripcion_dt</t>
   </si>
   <si>
@@ -1177,7 +1261,7 @@
     <t>Código de tratamiento ATC</t>
   </si>
   <si>
-    <t>En el catálogo de códigos ATC de medicamentos relevantes se incluye su indicación según condición de estudio de interés para este trabajo, en el campo 'enfermedad_st'</t>
+    <t xml:space="preserve">En el catálogo de códigos ATC de medicamentos relevantes se incluye la familia farmacológica a la que pertenecen en el campo 'familia_st' </t>
   </si>
   <si>
     <t>Cada paciente tiene tantos registros como comorbilidades estén presentes en el momento de entrar en la cohorte</t>
@@ -1204,7 +1288,7 @@
     <t>Fecha en la que se diagnostica la comorbilidad al paciente</t>
   </si>
   <si>
-    <t>La fecha de diagnóstico de las comorbilidades debe ser estrictamente anterior a la fecha de inicio del periodo de estudio ('fecha_diag_comorbilidad_dt' &lt; 2023-01-01)</t>
+    <t>La fecha de diagnóstico de las comorbilidades ('fecha_diag_comorbilidad_dt' &lt; 2023-12-31)</t>
   </si>
   <si>
     <t>nuts-2</t>
@@ -2974,11 +3058,12 @@
     <t>E11</t>
   </si>
   <si>
-    <t>0.0.1 primera versión de modelo común de datos
+    <t xml:space="preserve">0.0.1 primera versión de modelo común de datos
 0.0.2 primera versión del modelo común de datos siguiendo el estándar 'cdmb'
 0.0.3 actualización con correcciones mínimas en los metadatos y en la descripción y criterios de inclusión de la cohorte
 0.0.4 actualización con correcciones mínimas criterios de exclusión de la cohorte. En la pestaña 'cohort_definition_inclusion' se añaden los puntos en la columna code para icd-10 (lo mismo en la pestaña 'paciente_enfermedad_cd'). En la entidad 'paciente' y 'población' cambios en las variables: zbs_residencia_cd, edad_nm, nivel_copago_cd (ver columna 'observations_comments').
-0.0.5 Se añade la variable 'fecha_enfermedad_dt' a la entidad paciente (pestaña 'paciente'). Se actualiza la columna 'transformations_from_origin' de la variable 'test_cd' (pestaña 'test_cd') y 'examen_cd' (pestaña 'examenes'). Se elimina la columna 'enfermedad_st' en la pestaña 'tratamiento_atc_tratamiento_cd' y del catálogo correspondiente. Corrección en la pestaña 'comorbilidad', variable 'fecha_diag_comorbilidad_dt' , en la columna 'observations_comments' -&gt; ('fecha_diag_comorbilidad_dt' &lt; 2023-01-01)</t>
+0.0.5 Se añade la variable 'fecha_enfermedad_dt' a la entidad paciente (pestaña 'paciente'). Se actualiza la columna 'transformations_from_origin' de la variable 'test_cd' (pestaña 'test_cd') y 'examen_cd' (pestaña 'examenes'). Se elimina la columna 'enfermedad_st' en la pestaña 'tratamiento_atc_tratamiento_cd' y del catálogo correspondiente.
+0.1.0 Se modifica la definición de la cohorte: Ampliar selección de pacientes hasta 2023-12-31. Se añaden códigos CIE-10 de Fibrilación Auricular (FA) en la pestaña 'cohort_definition_inclusion' (por lo que se añaden también en la pestaña 'paciente_enfermedad_cd' (catálogo de la variable 'enfermedad_cd' de la entidad 'paciente')). En la entidad 'paciente' se modifica en la columna 'observations_comments' las variables 'zbs_residencia_cd', 'edad_nm', 'nivel_copago_cd'. En la entidad 'población' se modifica en la columna 'observations_comments' las variables 'año_cd','zbs_residencia_cd', 'nivel_copago_cd'. En la entidad 'tratamiento' se modifica en la columna 'observations_comments' la variable 'atc_tratamiento_cd'. En la entidad 'comorbilidad' se modifica en la columna 'observations_comments' la variable 'fecha_diag_comorbilidad_dt'. En las entidades 'tratamiento' y 'comorbilidad' se corrige el 'label' de la variable 'patiente_id' y pasa a 'paciente_id'.  </t>
   </si>
 </sst>
 </file>
@@ -3327,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3493,7 +3578,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>978</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -3503,7 +3588,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3517,19 +3602,19 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>59</v>
@@ -5013,6 +5098,186 @@
       </c>
       <c r="H75" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" t="s">
+        <v>260</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" t="s">
+        <v>264</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>270</v>
+      </c>
+      <c r="G79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" t="s">
+        <v>273</v>
+      </c>
+      <c r="G80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" t="s">
+        <v>275</v>
+      </c>
+      <c r="D81" t="s">
+        <v>276</v>
+      </c>
+      <c r="G81" t="s">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>278</v>
+      </c>
+      <c r="D82" t="s">
+        <v>279</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" t="s">
+        <v>282</v>
+      </c>
+      <c r="G83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" t="s">
+        <v>284</v>
+      </c>
+      <c r="D84" t="s">
+        <v>285</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5036,339 +5301,339 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="D10" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C11" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="D12" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="E12" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C13" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="D13" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C14" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="E15" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C16" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="D16" t="s">
+        <v>448</v>
+      </c>
+      <c r="E16" t="s">
         <v>420</v>
-      </c>
-      <c r="E16" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C17" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="E18" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C19" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="E19" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B20" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="E20" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -5392,339 +5657,339 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="D10" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C11" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="D12" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="E12" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C13" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="D13" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C14" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="E15" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C16" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="D16" t="s">
+        <v>448</v>
+      </c>
+      <c r="E16" t="s">
         <v>420</v>
-      </c>
-      <c r="E16" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C17" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="E18" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C19" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="E19" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B20" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="E20" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -5748,4198 +6013,4198 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
       <c r="G1" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="D2" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="G2" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="G3" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="G4" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="G5" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="C6" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="G6" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="G7" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="G8" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="G9" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="G10" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="G11" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="D12" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="G12" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="D13" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="G13" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B14" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="C14" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="D14" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="G14" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="C15" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="D15" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="G15" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="C16" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="G16" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="C17" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="D17" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="G17" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="C18" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="D18" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="G18" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="C19" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="D19" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="G19" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="C20" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="D20" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="G20" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="G21" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B22" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="C22" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="D22" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="G22" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B23" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="C23" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="D23" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="G23" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B24" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="C24" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="D24" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="G24" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B25" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="C25" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="D25" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="G25" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B26" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="C26" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="D26" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="G26" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B27" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="C27" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="D27" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="G27" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B28" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="C28" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="D28" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="G28" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B29" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="C29" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="D29" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="G29" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B30" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="C30" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="G30" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B31" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="C31" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="D31" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="G31" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B32" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="C32" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="G32" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B33" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="C33" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="D33" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="G33" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B34" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="C34" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="G34" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B35" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="C35" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="D35" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="G35" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B36" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C36" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="D36" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="G36" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B37" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="C37" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="D37" t="s">
+        <v>533</v>
+      </c>
+      <c r="G37" t="s">
         <v>505</v>
-      </c>
-      <c r="G37" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B38" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="C38" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="D38" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="G38" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B39" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="C39" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="D39" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="G39" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B40" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C40" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="D40" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="G40" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B41" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="C41" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="D41" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="G41" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B42" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="C42" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="D42" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="G42" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B43" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="C43" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="D43" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="G43" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B44" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="C44" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="D44" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="G44" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B45" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="C45" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="D45" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="G45" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B46" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C46" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="D46" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="G46" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B47" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="C47" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="D47" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="G47" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B48" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="D48" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="G48" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B49" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="C49" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="D49" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="G49" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B50" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="C50" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="D50" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="G50" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="C51" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="D51" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="G51" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="C52" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="D52" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="G52" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B53" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="C53" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="D53" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="G53" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B54" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="C54" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="D54" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="G54" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B55" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="C55" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="D55" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="G55" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="C56" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="D56" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="G56" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="C57" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="D57" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="G57" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B58" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="C58" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="D58" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="G58" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B59" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="C59" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="D59" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="G59" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B60" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="C60" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="D60" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="G60" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B61" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="C61" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="D61" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="G61" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B62" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="C62" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="D62" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="G62" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="C63" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="D63" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="G63" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B64" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="C64" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D64" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="G64" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="C65" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="D65" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="G65" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="C66" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="D66" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="G66" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C67" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="D67" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="G67" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="C68" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="D68" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="G68" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B69" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="C69" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="D69" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="G69" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="C70" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="D70" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="G70" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="C71" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="D71" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="G71" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B72" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="C72" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="D72" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="G72" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="C73" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="D73" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="G73" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B74" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="C74" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="D74" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="G74" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="C75" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="D75" t="s">
+        <v>610</v>
+      </c>
+      <c r="G75" t="s">
         <v>582</v>
-      </c>
-      <c r="G75" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="C76" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="D76" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="G76" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="C77" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="D77" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="G77" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B78" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="C78" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="D78" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="G78" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B79" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="C79" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="D79" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="G79" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B80" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="C80" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="D80" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="C81" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="D81" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="G81" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B82" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="C82" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="D82" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="G82" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B83" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="C83" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="D83" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="G83" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B84" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="C84" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="D84" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="G84" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B85" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="C85" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="D85" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="G85" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B86" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="C86" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="D86" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="G86" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B87" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="C87" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D87" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="G87" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B88" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="C88" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="D88" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="G88" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B89" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="C89" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="D89" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="G89" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B90" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="C90" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="D90" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="G90" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B91" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="C91" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="D91" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="G91" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B92" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="C92" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="D92" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="G92" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B93" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="C93" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="D93" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="G93" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B94" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="C94" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="D94" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="G94" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B95" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="C95" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="D95" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="G95" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B96" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="C96" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="D96" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="G96" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B97" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="C97" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="D97" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="G97" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B98" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="C98" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="D98" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="G98" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B99" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="C99" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="D99" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="G99" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B100" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="C100" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="D100" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="G100" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B101" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="C101" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="D101" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="G101" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B102" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="C102" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="D102" t="s">
+        <v>667</v>
+      </c>
+      <c r="G102" t="s">
         <v>639</v>
-      </c>
-      <c r="G102" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B103" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="C103" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="D103" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="G103" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B104" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="C104" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="D104" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="G104" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B105" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="C105" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="D105" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="G105" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B106" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="C106" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="D106" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="G106" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B107" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="C107" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="D107" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="G107" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B108" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="C108" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="D108" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="G108" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B109" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="C109" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="D109" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="G109" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B110" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="C110" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="D110" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="G110" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B111" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="C111" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="D111" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="G111" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B112" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="C112" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="D112" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="G112" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B113" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="C113" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="D113" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="G113" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B114" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="C114" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="D114" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="G114" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B115" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="C115" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="D115" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="G115" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B116" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="C116" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="D116" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="G116" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B117" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="C117" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="D117" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="G117" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B118" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="C118" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="D118" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="G118" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B119" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="C119" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="D119" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="G119" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B120" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="C120" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="D120" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="G120" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B121" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="C121" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="D121" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="G121" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B122" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="C122" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="D122" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="G122" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B123" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="C123" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="D123" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="G123" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B124" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="C124" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="D124" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="G124" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B125" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="C125" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="D125" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="G125" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B126" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="C126" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="D126" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="G126" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B127" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="C127" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="D127" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="G127" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B128" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="C128" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="D128" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="G128" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B129" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="C129" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="D129" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="G129" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B130" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="C130" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="D130" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="G130" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B131" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="C131" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="D131" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="G131" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B132" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="C132" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="D132" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="G132" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B133" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="C133" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="D133" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="G133" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B134" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="C134" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="D134" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="G134" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B135" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="C135" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="D135" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="G135" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B136" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="C136" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="D136" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="G136" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B137" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="C137" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="D137" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="G137" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B138" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="C138" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="D138" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="G138" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B139" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="C139" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="D139" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="G139" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B140" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="C140" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="D140" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="G140" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B141" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="C141" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="D141" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="G141" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B142" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="C142" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="D142" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="G142" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B143" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="C143" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="D143" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="G143" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B144" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="C144" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="D144" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="G144" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B145" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="C145" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="D145" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="G145" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B146" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="C146" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="D146" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="G146" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B147" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="C147" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="D147" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="G147" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B148" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="C148" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="D148" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
       <c r="G148" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B149" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="C149" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="D149" t="s">
-        <v>733</v>
+        <v>761</v>
       </c>
       <c r="G149" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B150" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="C150" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="D150" t="s">
-        <v>735</v>
+        <v>763</v>
       </c>
       <c r="G150" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B151" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="C151" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="D151" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="G151" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B152" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="C152" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="D152" t="s">
-        <v>739</v>
+        <v>767</v>
       </c>
       <c r="G152" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B153" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="C153" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="D153" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="G153" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B154" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="C154" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="D154" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="G154" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B155" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="C155" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="D155" t="s">
-        <v>746</v>
+        <v>774</v>
       </c>
       <c r="G155" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B156" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="C156" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="D156" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="G156" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B157" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="C157" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="D157" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="G157" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B158" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="C158" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="D158" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
       <c r="G158" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B159" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="C159" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="D159" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="G159" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B160" t="s">
-        <v>755</v>
+        <v>783</v>
       </c>
       <c r="C160" t="s">
-        <v>755</v>
+        <v>783</v>
       </c>
       <c r="D160" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
       <c r="G160" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B161" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="C161" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="D161" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="G161" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B162" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="C162" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="D162" t="s">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="G162" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B163" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="C163" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="D163" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="G163" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B164" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="C164" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="D164" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
       <c r="G164" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B165" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="C165" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="D165" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="G165" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B166" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="C166" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="D166" t="s">
-        <v>768</v>
+        <v>796</v>
       </c>
       <c r="G166" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B167" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="C167" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="D167" t="s">
+        <v>798</v>
+      </c>
+      <c r="G167" t="s">
         <v>770</v>
-      </c>
-      <c r="G167" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B168" t="s">
-        <v>771</v>
+        <v>799</v>
       </c>
       <c r="C168" t="s">
-        <v>771</v>
+        <v>799</v>
       </c>
       <c r="D168" t="s">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="G168" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B169" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="C169" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="D169" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
       <c r="G169" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B170" t="s">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="C170" t="s">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="D170" t="s">
-        <v>776</v>
+        <v>804</v>
       </c>
       <c r="G170" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B171" t="s">
-        <v>777</v>
+        <v>805</v>
       </c>
       <c r="C171" t="s">
-        <v>777</v>
+        <v>805</v>
       </c>
       <c r="D171" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="G171" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B172" t="s">
-        <v>779</v>
+        <v>807</v>
       </c>
       <c r="C172" t="s">
-        <v>779</v>
+        <v>807</v>
       </c>
       <c r="D172" t="s">
-        <v>780</v>
+        <v>808</v>
       </c>
       <c r="G172" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B173" t="s">
-        <v>781</v>
+        <v>809</v>
       </c>
       <c r="C173" t="s">
-        <v>781</v>
+        <v>809</v>
       </c>
       <c r="D173" t="s">
-        <v>782</v>
+        <v>810</v>
       </c>
       <c r="G173" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B174" t="s">
-        <v>783</v>
+        <v>811</v>
       </c>
       <c r="C174" t="s">
-        <v>783</v>
+        <v>811</v>
       </c>
       <c r="D174" t="s">
-        <v>784</v>
+        <v>812</v>
       </c>
       <c r="G174" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B175" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="C175" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="D175" t="s">
-        <v>786</v>
+        <v>814</v>
       </c>
       <c r="G175" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B176" t="s">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="C176" t="s">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="D176" t="s">
-        <v>788</v>
+        <v>816</v>
       </c>
       <c r="G176" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B177" t="s">
-        <v>789</v>
+        <v>817</v>
       </c>
       <c r="C177" t="s">
-        <v>789</v>
+        <v>817</v>
       </c>
       <c r="D177" t="s">
-        <v>790</v>
+        <v>818</v>
       </c>
       <c r="G177" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B178" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
       <c r="C178" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
       <c r="D178" t="s">
-        <v>792</v>
+        <v>820</v>
       </c>
       <c r="G178" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B179" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C179" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="D179" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="G179" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B180" t="s">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="C180" t="s">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="D180" t="s">
-        <v>796</v>
+        <v>824</v>
       </c>
       <c r="G180" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B181" t="s">
-        <v>797</v>
+        <v>825</v>
       </c>
       <c r="C181" t="s">
-        <v>797</v>
+        <v>825</v>
       </c>
       <c r="D181" t="s">
-        <v>798</v>
+        <v>826</v>
       </c>
       <c r="G181" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B182" t="s">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="C182" t="s">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="D182" t="s">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="G182" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B183" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="C183" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="D183" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
       <c r="G183" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B184" t="s">
-        <v>804</v>
+        <v>832</v>
       </c>
       <c r="C184" t="s">
-        <v>804</v>
+        <v>832</v>
       </c>
       <c r="D184" t="s">
-        <v>805</v>
+        <v>833</v>
       </c>
       <c r="G184" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B185" t="s">
-        <v>806</v>
+        <v>834</v>
       </c>
       <c r="C185" t="s">
-        <v>806</v>
+        <v>834</v>
       </c>
       <c r="D185" t="s">
-        <v>807</v>
+        <v>835</v>
       </c>
       <c r="G185" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B186" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="C186" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="D186" t="s">
-        <v>809</v>
+        <v>837</v>
       </c>
       <c r="G186" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B187" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="C187" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="D187" t="s">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="G187" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B188" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="C188" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="D188" t="s">
-        <v>813</v>
+        <v>841</v>
       </c>
       <c r="G188" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B189" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="C189" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="D189" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="G189" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B190" t="s">
-        <v>816</v>
+        <v>844</v>
       </c>
       <c r="C190" t="s">
-        <v>816</v>
+        <v>844</v>
       </c>
       <c r="D190" t="s">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="G190" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B191" t="s">
-        <v>818</v>
+        <v>846</v>
       </c>
       <c r="C191" t="s">
-        <v>818</v>
+        <v>846</v>
       </c>
       <c r="D191" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="G191" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B192" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="C192" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="D192" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="G192" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B193" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="C193" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="D193" t="s">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="G193" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B194" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="C194" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="D194" t="s">
-        <v>825</v>
+        <v>853</v>
       </c>
       <c r="G194" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B195" t="s">
-        <v>826</v>
+        <v>854</v>
       </c>
       <c r="C195" t="s">
-        <v>826</v>
+        <v>854</v>
       </c>
       <c r="D195" t="s">
+        <v>855</v>
+      </c>
+      <c r="G195" t="s">
         <v>827</v>
-      </c>
-      <c r="G195" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B196" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="C196" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="D196" t="s">
-        <v>829</v>
+        <v>857</v>
       </c>
       <c r="G196" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B197" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="C197" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="D197" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="G197" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B198" t="s">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="C198" t="s">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="D198" t="s">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="G198" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B199" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="C199" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="D199" t="s">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="G199" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B200" t="s">
-        <v>836</v>
+        <v>864</v>
       </c>
       <c r="C200" t="s">
-        <v>836</v>
+        <v>864</v>
       </c>
       <c r="D200" t="s">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="G200" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B201" t="s">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="C201" t="s">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="D201" t="s">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="G201" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B202" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="C202" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="D202" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="G202" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B203" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="C203" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="D203" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
       <c r="G203" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B204" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="C204" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="D204" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="G204" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B205" t="s">
-        <v>846</v>
+        <v>874</v>
       </c>
       <c r="C205" t="s">
-        <v>846</v>
+        <v>874</v>
       </c>
       <c r="D205" t="s">
-        <v>847</v>
+        <v>875</v>
       </c>
       <c r="G205" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B206" t="s">
-        <v>848</v>
+        <v>876</v>
       </c>
       <c r="C206" t="s">
-        <v>848</v>
+        <v>876</v>
       </c>
       <c r="D206" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="G206" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B207" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="C207" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="D207" t="s">
-        <v>851</v>
+        <v>879</v>
       </c>
       <c r="G207" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B208" t="s">
-        <v>852</v>
+        <v>880</v>
       </c>
       <c r="C208" t="s">
-        <v>852</v>
+        <v>880</v>
       </c>
       <c r="D208" t="s">
-        <v>853</v>
+        <v>881</v>
       </c>
       <c r="G208" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B209" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="C209" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="D209" t="s">
-        <v>855</v>
+        <v>883</v>
       </c>
       <c r="G209" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B210" t="s">
-        <v>856</v>
+        <v>884</v>
       </c>
       <c r="C210" t="s">
-        <v>856</v>
+        <v>884</v>
       </c>
       <c r="D210" t="s">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="G210" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B211" t="s">
-        <v>858</v>
+        <v>886</v>
       </c>
       <c r="C211" t="s">
-        <v>858</v>
+        <v>886</v>
       </c>
       <c r="D211" t="s">
-        <v>859</v>
+        <v>887</v>
       </c>
       <c r="G211" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B212" t="s">
-        <v>860</v>
+        <v>888</v>
       </c>
       <c r="C212" t="s">
-        <v>860</v>
+        <v>888</v>
       </c>
       <c r="D212" t="s">
-        <v>861</v>
+        <v>889</v>
       </c>
       <c r="G212" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B213" t="s">
-        <v>862</v>
+        <v>890</v>
       </c>
       <c r="C213" t="s">
-        <v>862</v>
+        <v>890</v>
       </c>
       <c r="D213" t="s">
-        <v>863</v>
+        <v>891</v>
       </c>
       <c r="G213" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B214" t="s">
-        <v>864</v>
+        <v>892</v>
       </c>
       <c r="C214" t="s">
-        <v>864</v>
+        <v>892</v>
       </c>
       <c r="D214" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="G214" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B215" t="s">
-        <v>866</v>
+        <v>894</v>
       </c>
       <c r="C215" t="s">
-        <v>866</v>
+        <v>894</v>
       </c>
       <c r="D215" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="G215" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B216" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="C216" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="D216" t="s">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="G216" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B217" t="s">
-        <v>870</v>
+        <v>898</v>
       </c>
       <c r="C217" t="s">
-        <v>870</v>
+        <v>898</v>
       </c>
       <c r="D217" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
       <c r="G217" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B218" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="C218" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="D218" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
       <c r="G218" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B219" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="C219" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="D219" t="s">
-        <v>875</v>
+        <v>903</v>
       </c>
       <c r="G219" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B220" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="C220" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="D220" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="G220" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B221" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="C221" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="D221" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="G221" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B222" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="C222" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="D222" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="G222" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B223" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="C223" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="D223" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="G223" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B224" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="C224" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="D224" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="G224" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B225" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="C225" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="D225" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="G225" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B226" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="C226" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="D226" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="G226" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B227" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="C227" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="D227" t="s">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="G227" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B228" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="C228" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="D228" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="G228" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B229" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="C229" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="D229" t="s">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="G229" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B230" t="s">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="C230" t="s">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="D230" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
       <c r="G230" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B231" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="C231" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="D231" t="s">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="G231" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B232" t="s">
-        <v>900</v>
+        <v>928</v>
       </c>
       <c r="C232" t="s">
-        <v>900</v>
+        <v>928</v>
       </c>
       <c r="D232" t="s">
-        <v>901</v>
+        <v>929</v>
       </c>
       <c r="G232" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B233" t="s">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="C233" t="s">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="D233" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G233" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B234" t="s">
-        <v>904</v>
+        <v>932</v>
       </c>
       <c r="C234" t="s">
-        <v>904</v>
+        <v>932</v>
       </c>
       <c r="D234" t="s">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="G234" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B235" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="C235" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="D235" t="s">
-        <v>907</v>
+        <v>935</v>
       </c>
       <c r="G235" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B236" t="s">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="C236" t="s">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="D236" t="s">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="G236" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B237" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="C237" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="D237" t="s">
-        <v>911</v>
+        <v>939</v>
       </c>
       <c r="G237" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B238" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="C238" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="D238" t="s">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="G238" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B239" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="C239" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="D239" t="s">
-        <v>915</v>
+        <v>943</v>
       </c>
       <c r="G239" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B240" t="s">
-        <v>916</v>
+        <v>944</v>
       </c>
       <c r="C240" t="s">
-        <v>916</v>
+        <v>944</v>
       </c>
       <c r="D240" t="s">
-        <v>917</v>
+        <v>945</v>
       </c>
       <c r="G240" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B241" t="s">
-        <v>918</v>
+        <v>946</v>
       </c>
       <c r="C241" t="s">
-        <v>918</v>
+        <v>946</v>
       </c>
       <c r="D241" t="s">
-        <v>919</v>
+        <v>947</v>
       </c>
       <c r="G241" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B242" t="s">
-        <v>920</v>
+        <v>948</v>
       </c>
       <c r="C242" t="s">
-        <v>920</v>
+        <v>948</v>
       </c>
       <c r="D242" t="s">
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="G242" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B243" t="s">
-        <v>922</v>
+        <v>950</v>
       </c>
       <c r="C243" t="s">
-        <v>922</v>
+        <v>950</v>
       </c>
       <c r="D243" t="s">
-        <v>923</v>
+        <v>951</v>
       </c>
       <c r="G243" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B244" t="s">
-        <v>924</v>
+        <v>952</v>
       </c>
       <c r="C244" t="s">
-        <v>924</v>
+        <v>952</v>
       </c>
       <c r="D244" t="s">
-        <v>925</v>
+        <v>953</v>
       </c>
       <c r="G244" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B245" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
       <c r="C245" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
       <c r="D245" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="G245" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B246" t="s">
-        <v>928</v>
+        <v>956</v>
       </c>
       <c r="C246" t="s">
-        <v>928</v>
+        <v>956</v>
       </c>
       <c r="D246" t="s">
-        <v>929</v>
+        <v>957</v>
       </c>
       <c r="G246" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B247" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="C247" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="D247" t="s">
-        <v>931</v>
+        <v>959</v>
       </c>
       <c r="G247" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -9963,19 +10228,19 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
       <c r="G1" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9989,7 +10254,7 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>932</v>
+        <v>960</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -10142,7 +10407,7 @@
         <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -10221,13 +10486,13 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>934</v>
+        <v>962</v>
       </c>
       <c r="C16" t="s">
-        <v>934</v>
+        <v>962</v>
       </c>
       <c r="D16" t="s">
-        <v>935</v>
+        <v>963</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
@@ -10238,13 +10503,13 @@
         <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>936</v>
+        <v>964</v>
       </c>
       <c r="C17" t="s">
-        <v>937</v>
+        <v>965</v>
       </c>
       <c r="D17" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G17" t="s">
         <v>70</v>
@@ -10255,13 +10520,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="C18" t="s">
-        <v>940</v>
+        <v>968</v>
       </c>
       <c r="D18" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
@@ -10272,13 +10537,13 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>941</v>
+        <v>969</v>
       </c>
       <c r="C19" t="s">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="D19" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G19" t="s">
         <v>70</v>
@@ -10289,13 +10554,13 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>943</v>
+        <v>971</v>
       </c>
       <c r="C20" t="s">
-        <v>944</v>
+        <v>972</v>
       </c>
       <c r="D20" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
@@ -10306,13 +10571,13 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>945</v>
+        <v>973</v>
       </c>
       <c r="C21" t="s">
-        <v>946</v>
+        <v>974</v>
       </c>
       <c r="D21" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G21" t="s">
         <v>70</v>
@@ -10323,13 +10588,13 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>947</v>
+        <v>975</v>
       </c>
       <c r="C22" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="D22" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G22" t="s">
         <v>70</v>
@@ -10340,13 +10605,13 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>949</v>
+        <v>977</v>
       </c>
       <c r="C23" t="s">
-        <v>950</v>
+        <v>978</v>
       </c>
       <c r="D23" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G23" t="s">
         <v>70</v>
@@ -10357,13 +10622,13 @@
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>951</v>
+        <v>979</v>
       </c>
       <c r="C24" t="s">
-        <v>952</v>
+        <v>980</v>
       </c>
       <c r="D24" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
@@ -10374,13 +10639,13 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
       <c r="C25" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="D25" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G25" t="s">
         <v>70</v>
@@ -10391,13 +10656,13 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
       <c r="C26" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="D26" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G26" t="s">
         <v>70</v>
@@ -10408,13 +10673,13 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="C27" t="s">
-        <v>958</v>
+        <v>986</v>
       </c>
       <c r="D27" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G27" t="s">
         <v>70</v>
@@ -10425,13 +10690,13 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="C28" t="s">
-        <v>960</v>
+        <v>988</v>
       </c>
       <c r="D28" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G28" t="s">
         <v>70</v>
@@ -10442,13 +10707,13 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="C29" t="s">
-        <v>962</v>
+        <v>990</v>
       </c>
       <c r="D29" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G29" t="s">
         <v>70</v>
@@ -10459,13 +10724,13 @@
         <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="C30" t="s">
-        <v>964</v>
+        <v>992</v>
       </c>
       <c r="D30" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G30" t="s">
         <v>70</v>
@@ -10476,13 +10741,13 @@
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="C31" t="s">
+        <v>994</v>
+      </c>
+      <c r="D31" t="s">
         <v>966</v>
-      </c>
-      <c r="D31" t="s">
-        <v>938</v>
       </c>
       <c r="G31" t="s">
         <v>70</v>
@@ -10493,13 +10758,13 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="C32" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="D32" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G32" t="s">
         <v>70</v>
@@ -10510,13 +10775,13 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="C33" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="D33" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G33" t="s">
         <v>70</v>
@@ -10527,13 +10792,13 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="C34" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="D34" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G34" t="s">
         <v>70</v>
@@ -10544,13 +10809,13 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>973</v>
+        <v>1001</v>
       </c>
       <c r="C35" t="s">
-        <v>974</v>
+        <v>1002</v>
       </c>
       <c r="D35" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G35" t="s">
         <v>70</v>
@@ -10561,13 +10826,13 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>975</v>
+        <v>1003</v>
       </c>
       <c r="C36" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="D36" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G36" t="s">
         <v>70</v>
@@ -10578,13 +10843,13 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>977</v>
+        <v>1005</v>
       </c>
       <c r="C37" t="s">
-        <v>977</v>
+        <v>1005</v>
       </c>
       <c r="D37" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="G37" t="s">
         <v>70</v>
@@ -10611,7 +10876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -10711,7 +10978,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10725,19 +10992,19 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>59</v>
@@ -12221,6 +12488,186 @@
       </c>
       <c r="H75" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" t="s">
+        <v>260</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" t="s">
+        <v>264</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>270</v>
+      </c>
+      <c r="G79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" t="s">
+        <v>273</v>
+      </c>
+      <c r="G80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" t="s">
+        <v>275</v>
+      </c>
+      <c r="D81" t="s">
+        <v>276</v>
+      </c>
+      <c r="G81" t="s">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>278</v>
+      </c>
+      <c r="D82" t="s">
+        <v>279</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" t="s">
+        <v>282</v>
+      </c>
+      <c r="G83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" t="s">
+        <v>284</v>
+      </c>
+      <c r="D84" t="s">
+        <v>285</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -12238,314 +12685,314 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M1" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="K2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="K3" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="L3" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="K4" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L4" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M5" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G6" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H6" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L6" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="K7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L7" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="K8" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L8" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H9" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -12563,273 +13010,273 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M1" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="K2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L2" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="K4" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L4" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="G6" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H6" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="L6" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="K7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="K8" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L8" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -12847,183 +13294,183 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M1" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="K2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L2" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" t="s">
         <v>340</v>
       </c>
-      <c r="C3" t="s">
-        <v>312</v>
-      </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="M3" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="K4" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="M4" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L5" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="M5" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -13041,189 +13488,189 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M1" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="K2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L2" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="K3" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="M3" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="K4" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L4" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="M4" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="K5" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L5" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="M5" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -13241,183 +13688,183 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M1" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="K2" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="L2" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="K3" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="M3" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="K4" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="L5" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -13429,159 +13876,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M1" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="K2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L2" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K3" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L3" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="K4" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L4" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
